--- a/annexes/Fiche de test fonctionnel.xlsx
+++ b/annexes/Fiche de test fonctionnel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viacesifr-my.sharepoint.com/personal/gabriel_desseresusini_viacesi_fr/Documents/Projet Java/Réalisations/Tests_Fonctionnels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurazul/Documents/Cours CESI/Projet JAVA/Réalisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A1346263-8E6A-704A-BF08-556ABB1EEC34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F5504302-179A-F747-88E5-A7579B3CC75C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB2479-1CF0-B043-A103-DF8585A93641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="460" windowWidth="34460" windowHeight="27340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34900" yWindow="-4400" windowWidth="21100" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EPIC - Recherche" sheetId="3" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>5. Affichage du détail d'un incident</t>
   </si>
   <si>
-    <t>Rapport.docx</t>
-  </si>
-  <si>
     <t>1.    url : http://localhost:3000/</t>
   </si>
   <si>
@@ -184,16 +181,19 @@
     <t>3.    Données incident:
           "ref":"AT20210406NY17"
           "startDate":"2021-04-06"
-          "solved":0
+          "solved": 0
           "archive":0
           "dangerousness": 92
           "status":"Interverntion demandée"
           "eventType": "name": "Attaque d'Ânumains"
-          "civils": 1, 2
-          "organisations": 8
-          "superbeings": 2,3
+          "civils": "Pipriet Molenov Radjasky", "Nick Furys"
+          "organisations": "Hydra"
+          "superbeings": "Crâne Rouge", "Spiderman"
           "comments": "comments": "Attaque d'un groupe d'Ânumains dirigés par Crâne Rouge"
-          "comments": "Les Ânumains sont arriver sur terre suite à l'utilisation du tesseract par Crâne Rouge faisant entrer ces créatures d'un autre univers dans notre monde."</t>
+          "comments": "Les Ânumains sont arriver sur terre suite à l'utilisation du tesseract par Crâne Rouge faisant entrée ces créatures d'un autre univers dans notre monde."</t>
+  </si>
+  <si>
+    <t>"https://github.com/Kura33/ProjectJavaCesi", "DI19 - Projet Java Groupe 1.pdf"</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA31DB98-5BDA-44F7-A7C0-2A121C80068F}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="193" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -990,12 +990,16 @@
     <col min="4" max="4" width="1.83203125" style="8" customWidth="1"/>
     <col min="5" max="8" width="3.1640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" style="8" customWidth="1"/>
-    <col min="10" max="14" width="3.1640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="2" style="8" customWidth="1"/>
+    <col min="12" max="14" width="3.1640625" style="8" customWidth="1"/>
     <col min="15" max="15" width="2.1640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="1" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="8" customWidth="1"/>
     <col min="17" max="17" width="1" style="8" customWidth="1"/>
-    <col min="18" max="20" width="3.1640625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="11" style="8" customWidth="1"/>
+    <col min="18" max="18" width="2.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="1.83203125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="8" customWidth="1"/>
     <col min="22" max="22" width="2.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1026,7 +1030,7 @@
     <row r="2" spans="1:22" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1097,7 +1101,7 @@
       <c r="O4" s="40"/>
       <c r="P4" s="40"/>
       <c r="Q4" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
@@ -1113,7 +1117,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1136,12 +1140,12 @@
     <row r="6" spans="1:22" ht="12" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1167,7 +1171,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1193,7 +1197,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -1245,7 +1249,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
@@ -1256,7 +1260,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="35"/>
@@ -1284,7 +1288,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="27"/>
       <c r="L11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1297,7 +1301,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="166" customHeight="1">
+    <row r="12" spans="1:22" ht="159" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -1312,7 +1316,7 @@
       <c r="J12" s="29"/>
       <c r="K12" s="30"/>
       <c r="L12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1405,7 +1409,7 @@
       <c r="U15" s="22"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="22">
+    <row r="16" spans="1:22" ht="24" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
         <v>5</v>
@@ -1434,12 +1438,12 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V16" s="1"/>
     </row>
@@ -1539,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1569,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1629,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2073,15 +2077,8 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472A2DD-95DE-4884-89AA-82EE92CE9810}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f679f5d-d921-4764-a1ca-ea02d49c3053"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
